--- a/pred_ohlcv/54/2019-11-12 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-12 HDAC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>34.4</v>
       </c>
       <c r="F2" t="n">
-        <v>84025.69899999999</v>
+        <v>52.6648</v>
       </c>
       <c r="G2" t="n">
-        <v>34.35333333333338</v>
+        <v>34.35166666666672</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>34.4</v>
       </c>
       <c r="F3" t="n">
-        <v>144.999</v>
+        <v>84025.69899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>34.35500000000005</v>
+        <v>34.35333333333338</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>34.4</v>
       </c>
       <c r="F4" t="n">
-        <v>56.655</v>
+        <v>144.999</v>
       </c>
       <c r="G4" t="n">
-        <v>34.35666666666671</v>
+        <v>34.35500000000005</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>34.4</v>
       </c>
       <c r="F5" t="n">
-        <v>172.0655</v>
+        <v>56.655</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36500000000004</v>
+        <v>34.35666666666671</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>34.4</v>
       </c>
       <c r="F6" t="n">
-        <v>144.1538</v>
+        <v>172.0655</v>
       </c>
       <c r="G6" t="n">
-        <v>34.36666666666671</v>
+        <v>34.36500000000004</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>34.4</v>
       </c>
       <c r="C7" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D7" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E7" t="n">
         <v>34.4</v>
       </c>
       <c r="F7" t="n">
-        <v>13243.5876</v>
+        <v>144.1538</v>
       </c>
       <c r="G7" t="n">
-        <v>34.37500000000004</v>
+        <v>34.36666666666671</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C8" t="n">
         <v>34.5</v>
@@ -573,15 +596,18 @@
         <v>34.6</v>
       </c>
       <c r="E8" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F8" t="n">
-        <v>11907.3625</v>
+        <v>13243.5876</v>
       </c>
       <c r="G8" t="n">
-        <v>34.37833333333337</v>
+        <v>34.37500000000004</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,7 +619,7 @@
         <v>34.5</v>
       </c>
       <c r="C9" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
         <v>34.6</v>
@@ -602,12 +628,15 @@
         <v>34.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5380.952</v>
+        <v>11907.3625</v>
       </c>
       <c r="G9" t="n">
-        <v>34.38666666666671</v>
+        <v>34.37833333333337</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>34.5</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D10" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E10" t="n">
         <v>34.5</v>
       </c>
       <c r="F10" t="n">
-        <v>19.996</v>
+        <v>5380.952</v>
       </c>
       <c r="G10" t="n">
-        <v>34.39333333333338</v>
+        <v>34.38666666666671</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>34.5</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3017</v>
+        <v>19.996</v>
       </c>
       <c r="G11" t="n">
-        <v>34.39666666666671</v>
+        <v>34.39333333333338</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>34.5</v>
       </c>
       <c r="F12" t="n">
-        <v>36.6358</v>
+        <v>113.3017</v>
       </c>
       <c r="G12" t="n">
-        <v>34.40333333333338</v>
+        <v>34.39666666666671</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>34.5</v>
       </c>
       <c r="F13" t="n">
-        <v>36.9845</v>
+        <v>36.6358</v>
       </c>
       <c r="G13" t="n">
-        <v>34.41166666666671</v>
+        <v>34.40333333333338</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>34.5</v>
       </c>
       <c r="F14" t="n">
-        <v>19.969</v>
+        <v>36.9845</v>
       </c>
       <c r="G14" t="n">
-        <v>34.41666666666671</v>
+        <v>34.41166666666671</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>34.5</v>
       </c>
       <c r="F15" t="n">
-        <v>19.699</v>
+        <v>19.969</v>
       </c>
       <c r="G15" t="n">
-        <v>34.42500000000005</v>
+        <v>34.41666666666671</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>34.5</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D16" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E16" t="n">
         <v>34.5</v>
       </c>
       <c r="F16" t="n">
-        <v>6908.2281</v>
+        <v>19.699</v>
       </c>
       <c r="G16" t="n">
-        <v>34.43500000000004</v>
+        <v>34.42500000000005</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>34.5</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E17" t="n">
         <v>34.5</v>
       </c>
       <c r="F17" t="n">
-        <v>55.6635</v>
+        <v>6908.2281</v>
       </c>
       <c r="G17" t="n">
-        <v>34.44000000000005</v>
+        <v>34.43500000000004</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>34.5</v>
       </c>
       <c r="C18" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D18" t="n">
         <v>34.5</v>
       </c>
       <c r="E18" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F18" t="n">
-        <v>30893.0598</v>
+        <v>55.6635</v>
       </c>
       <c r="G18" t="n">
-        <v>34.44666666666672</v>
+        <v>34.44000000000005</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C19" t="n">
         <v>34.4</v>
       </c>
       <c r="D19" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E19" t="n">
         <v>34.4</v>
       </c>
       <c r="F19" t="n">
-        <v>1231.9253</v>
+        <v>30893.0598</v>
       </c>
       <c r="G19" t="n">
-        <v>34.45000000000005</v>
+        <v>34.44666666666672</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>34.4</v>
       </c>
       <c r="F20" t="n">
-        <v>1676.0316</v>
+        <v>1231.9253</v>
       </c>
       <c r="G20" t="n">
-        <v>34.45666666666672</v>
+        <v>34.45000000000005</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>34.4</v>
       </c>
       <c r="F21" t="n">
-        <v>412.5871</v>
+        <v>1676.0316</v>
       </c>
       <c r="G21" t="n">
-        <v>34.46000000000006</v>
+        <v>34.45666666666672</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>34.4</v>
       </c>
       <c r="F22" t="n">
-        <v>37.9936</v>
+        <v>412.5871</v>
       </c>
       <c r="G22" t="n">
         <v>34.46000000000006</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>34.4</v>
       </c>
       <c r="F23" t="n">
-        <v>76.051</v>
+        <v>37.9936</v>
       </c>
       <c r="G23" t="n">
-        <v>34.45666666666673</v>
+        <v>34.46000000000006</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>34.4</v>
       </c>
       <c r="F24" t="n">
-        <v>283.7224</v>
+        <v>76.051</v>
       </c>
       <c r="G24" t="n">
-        <v>34.45166666666673</v>
+        <v>34.45666666666673</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>34.4</v>
       </c>
       <c r="F25" t="n">
-        <v>1253.2829</v>
+        <v>283.7224</v>
       </c>
       <c r="G25" t="n">
-        <v>34.4483333333334</v>
+        <v>34.45166666666673</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>34.4</v>
       </c>
       <c r="F26" t="n">
-        <v>733.9957000000001</v>
+        <v>1253.2829</v>
       </c>
       <c r="G26" t="n">
-        <v>34.44500000000007</v>
+        <v>34.4483333333334</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>34.4</v>
       </c>
       <c r="C27" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D27" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E27" t="n">
         <v>34.4</v>
       </c>
       <c r="F27" t="n">
-        <v>2276.5395</v>
+        <v>733.9957000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>34.44333333333341</v>
+        <v>34.44500000000007</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C28" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D28" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E28" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F28" t="n">
-        <v>6862.16</v>
+        <v>2276.5395</v>
       </c>
       <c r="G28" t="n">
-        <v>34.44166666666674</v>
+        <v>34.44333333333341</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>34.6</v>
       </c>
       <c r="C29" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D29" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E29" t="n">
         <v>34.6</v>
       </c>
       <c r="F29" t="n">
-        <v>1206.9</v>
+        <v>6862.16</v>
       </c>
       <c r="G29" t="n">
-        <v>34.44500000000007</v>
+        <v>34.44166666666674</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>34.6</v>
       </c>
       <c r="F30" t="n">
-        <v>33.999</v>
+        <v>1206.9</v>
       </c>
       <c r="G30" t="n">
-        <v>34.4483333333334</v>
+        <v>34.44500000000007</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>34.6</v>
       </c>
       <c r="F31" t="n">
-        <v>40.6985</v>
+        <v>33.999</v>
       </c>
       <c r="G31" t="n">
-        <v>34.45166666666673</v>
+        <v>34.4483333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>34.6</v>
       </c>
       <c r="C32" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D32" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E32" t="n">
         <v>34.6</v>
       </c>
       <c r="F32" t="n">
-        <v>38.6654</v>
+        <v>40.6985</v>
       </c>
       <c r="G32" t="n">
-        <v>34.4533333333334</v>
+        <v>34.45166666666673</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D33" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1015</v>
+        <v>38.6654</v>
       </c>
       <c r="G33" t="n">
-        <v>34.45500000000006</v>
+        <v>34.4533333333334</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C34" t="n">
         <v>34.4</v>
       </c>
-      <c r="C34" t="n">
-        <v>34.5</v>
-      </c>
       <c r="D34" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="E34" t="n">
         <v>34.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1443.999</v>
+        <v>1015</v>
       </c>
       <c r="G34" t="n">
-        <v>34.45666666666673</v>
+        <v>34.45500000000006</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,7 +1373,7 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D35" t="n">
         <v>34.5</v>
@@ -1278,12 +1382,15 @@
         <v>34.4</v>
       </c>
       <c r="F35" t="n">
-        <v>2757.9996</v>
+        <v>1443.999</v>
       </c>
       <c r="G35" t="n">
         <v>34.45666666666673</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D36" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="E36" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F36" t="n">
-        <v>53.996</v>
+        <v>2757.9996</v>
       </c>
       <c r="G36" t="n">
-        <v>34.46000000000006</v>
+        <v>34.45666666666673</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>34.6</v>
       </c>
       <c r="C37" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D37" t="n">
         <v>34.7</v>
       </c>
       <c r="E37" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F37" t="n">
-        <v>3158</v>
+        <v>53.996</v>
       </c>
       <c r="G37" t="n">
-        <v>34.45666666666673</v>
+        <v>34.46000000000006</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C38" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D38" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E38" t="n">
         <v>34.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2431</v>
+        <v>3158</v>
       </c>
       <c r="G38" t="n">
         <v>34.45666666666673</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,10 +1486,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D39" t="n">
         <v>34.6</v>
@@ -1382,12 +1498,15 @@
         <v>34.4</v>
       </c>
       <c r="F39" t="n">
-        <v>2648.699</v>
+        <v>2431</v>
       </c>
       <c r="G39" t="n">
-        <v>34.45833333333339</v>
+        <v>34.45666666666673</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C40" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D40" t="n">
         <v>34.6</v>
       </c>
       <c r="E40" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>2648.699</v>
       </c>
       <c r="G40" t="n">
-        <v>34.46166666666672</v>
+        <v>34.45833333333339</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D41" t="n">
         <v>34.6</v>
       </c>
       <c r="E41" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F41" t="n">
-        <v>85.655</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>34.46333333333339</v>
+        <v>34.46166666666672</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>34.5</v>
       </c>
       <c r="F42" t="n">
-        <v>57.992</v>
+        <v>85.655</v>
       </c>
       <c r="G42" t="n">
-        <v>34.46500000000005</v>
+        <v>34.46333333333339</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C43" t="n">
         <v>34.5</v>
@@ -1486,12 +1614,15 @@
         <v>34.5</v>
       </c>
       <c r="F43" t="n">
-        <v>89.3967</v>
+        <v>57.992</v>
       </c>
       <c r="G43" t="n">
-        <v>34.46666666666672</v>
+        <v>34.46500000000005</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,21 +1634,24 @@
         <v>34.6</v>
       </c>
       <c r="C44" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
         <v>34.6</v>
       </c>
       <c r="E44" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>89.3967</v>
       </c>
       <c r="G44" t="n">
-        <v>34.47000000000005</v>
+        <v>34.46666666666672</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1532,18 +1666,21 @@
         <v>34.6</v>
       </c>
       <c r="D45" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E45" t="n">
         <v>34.6</v>
       </c>
       <c r="F45" t="n">
-        <v>14362.6519</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>34.47333333333338</v>
+        <v>34.47000000000005</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,10 +1689,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C46" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D46" t="n">
         <v>34.7</v>
@@ -1564,12 +1701,15 @@
         <v>34.6</v>
       </c>
       <c r="F46" t="n">
-        <v>100959.2549</v>
+        <v>14362.6519</v>
       </c>
       <c r="G46" t="n">
-        <v>34.47833333333337</v>
+        <v>34.47333333333338</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C47" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D47" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E47" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="F47" t="n">
-        <v>15</v>
+        <v>100959.2549</v>
       </c>
       <c r="G47" t="n">
-        <v>34.48500000000004</v>
+        <v>34.47833333333337</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C48" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D48" t="n">
         <v>34.8</v>
       </c>
       <c r="E48" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="F48" t="n">
-        <v>343.698</v>
+        <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>34.49000000000004</v>
+        <v>34.48500000000004</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,10 +1776,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C49" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D49" t="n">
         <v>34.8</v>
@@ -1642,12 +1788,15 @@
         <v>34.6</v>
       </c>
       <c r="F49" t="n">
-        <v>217.783</v>
+        <v>343.698</v>
       </c>
       <c r="G49" t="n">
-        <v>34.49666666666671</v>
+        <v>34.49000000000004</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,10 +1805,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C50" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D50" t="n">
         <v>34.8</v>
@@ -1668,12 +1817,15 @@
         <v>34.6</v>
       </c>
       <c r="F50" t="n">
-        <v>200.6497</v>
+        <v>217.783</v>
       </c>
       <c r="G50" t="n">
-        <v>34.50000000000004</v>
+        <v>34.49666666666671</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,10 +1834,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="C51" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="D51" t="n">
         <v>34.8</v>
@@ -1694,12 +1846,15 @@
         <v>34.6</v>
       </c>
       <c r="F51" t="n">
-        <v>726.6985</v>
+        <v>200.6497</v>
       </c>
       <c r="G51" t="n">
-        <v>34.5066666666667</v>
+        <v>34.50000000000004</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1863,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C52" t="n">
         <v>34.8</v>
@@ -1720,12 +1875,15 @@
         <v>34.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1892</v>
+        <v>726.6985</v>
       </c>
       <c r="G52" t="n">
-        <v>34.51333333333337</v>
+        <v>34.5066666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="C53" t="n">
         <v>34.8</v>
@@ -1746,12 +1904,15 @@
         <v>34.6</v>
       </c>
       <c r="F53" t="n">
-        <v>174</v>
+        <v>1892</v>
       </c>
       <c r="G53" t="n">
-        <v>34.52000000000005</v>
+        <v>34.51333333333337</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C54" t="n">
         <v>34.8</v>
@@ -1772,12 +1933,15 @@
         <v>34.6</v>
       </c>
       <c r="F54" t="n">
-        <v>1472</v>
+        <v>174</v>
       </c>
       <c r="G54" t="n">
-        <v>34.52666666666671</v>
+        <v>34.52000000000005</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>34.6</v>
       </c>
       <c r="F55" t="n">
-        <v>70.69</v>
+        <v>1472</v>
       </c>
       <c r="G55" t="n">
-        <v>34.53166666666672</v>
+        <v>34.52666666666671</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>34.6</v>
       </c>
       <c r="F56" t="n">
-        <v>115</v>
+        <v>70.69</v>
       </c>
       <c r="G56" t="n">
-        <v>34.53833333333338</v>
+        <v>34.53166666666672</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>34.6</v>
       </c>
       <c r="F57" t="n">
-        <v>236.695</v>
+        <v>115</v>
       </c>
       <c r="G57" t="n">
-        <v>34.54500000000005</v>
+        <v>34.53833333333338</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>34.6</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>236.695</v>
       </c>
       <c r="G58" t="n">
-        <v>34.55166666666672</v>
+        <v>34.54500000000005</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>34.6</v>
       </c>
       <c r="F59" t="n">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>34.55833333333339</v>
+        <v>34.55166666666672</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>34.6</v>
       </c>
       <c r="F60" t="n">
-        <v>173.699</v>
+        <v>165</v>
       </c>
       <c r="G60" t="n">
-        <v>34.56500000000005</v>
+        <v>34.55833333333339</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C61" t="n">
         <v>34.8</v>
@@ -1951,15 +2133,18 @@
         <v>34.8</v>
       </c>
       <c r="E61" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F61" t="n">
-        <v>5015</v>
+        <v>173.699</v>
       </c>
       <c r="G61" t="n">
-        <v>34.57166666666672</v>
+        <v>34.56500000000005</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>34.7</v>
       </c>
       <c r="C62" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E62" t="n">
         <v>34.7</v>
       </c>
-      <c r="D62" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E62" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F62" t="n">
-        <v>180770.3771</v>
+        <v>5015</v>
       </c>
       <c r="G62" t="n">
-        <v>34.57666666666672</v>
+        <v>34.57166666666672</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C63" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D63" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E63" t="n">
         <v>34.5</v>
       </c>
       <c r="F63" t="n">
-        <v>1538</v>
+        <v>180770.3771</v>
       </c>
       <c r="G63" t="n">
-        <v>34.58000000000005</v>
+        <v>34.57666666666672</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C64" t="n">
         <v>34.6</v>
       </c>
-      <c r="C64" t="n">
-        <v>34.7</v>
-      </c>
       <c r="D64" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E64" t="n">
         <v>34.5</v>
       </c>
       <c r="F64" t="n">
-        <v>39</v>
+        <v>1538</v>
       </c>
       <c r="G64" t="n">
-        <v>34.58500000000004</v>
+        <v>34.58000000000005</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C65" t="n">
         <v>34.7</v>
@@ -2058,12 +2252,15 @@
         <v>34.5</v>
       </c>
       <c r="F65" t="n">
-        <v>96.694</v>
+        <v>39</v>
       </c>
       <c r="G65" t="n">
-        <v>34.59000000000004</v>
+        <v>34.58500000000004</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C66" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D66" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F66" t="n">
-        <v>1940</v>
+        <v>96.694</v>
       </c>
       <c r="G66" t="n">
-        <v>34.59666666666671</v>
+        <v>34.59000000000004</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C67" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D67" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E67" t="n">
         <v>34.6</v>
       </c>
       <c r="F67" t="n">
-        <v>1539</v>
+        <v>1940</v>
       </c>
       <c r="G67" t="n">
-        <v>34.59833333333337</v>
+        <v>34.59666666666671</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>34.7</v>
       </c>
       <c r="C68" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D68" t="n">
         <v>34.7</v>
       </c>
       <c r="E68" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F68" t="n">
-        <v>1439</v>
+        <v>1539</v>
       </c>
       <c r="G68" t="n">
-        <v>34.6016666666667</v>
+        <v>34.59833333333337</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F69" t="n">
-        <v>137328.7494</v>
+        <v>1439</v>
       </c>
       <c r="G69" t="n">
-        <v>34.60500000000004</v>
+        <v>34.6016666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C70" t="n">
         <v>34.8</v>
@@ -2185,15 +2394,18 @@
         <v>34.8</v>
       </c>
       <c r="E70" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1906.7</v>
+        <v>137328.7494</v>
       </c>
       <c r="G70" t="n">
-        <v>34.61000000000004</v>
+        <v>34.60500000000004</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C71" t="n">
         <v>34.8</v>
       </c>
-      <c r="C71" t="n">
-        <v>34.9</v>
-      </c>
       <c r="D71" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E71" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F71" t="n">
-        <v>229937.8506</v>
+        <v>1906.7</v>
       </c>
       <c r="G71" t="n">
-        <v>34.61666666666671</v>
+        <v>34.61000000000004</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>34.8</v>
       </c>
       <c r="C72" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D72" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E72" t="n">
         <v>34.8</v>
       </c>
       <c r="F72" t="n">
-        <v>6151.7</v>
+        <v>229937.8506</v>
       </c>
       <c r="G72" t="n">
-        <v>34.62166666666671</v>
+        <v>34.61666666666671</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>6151.7</v>
       </c>
       <c r="G73" t="n">
-        <v>34.62833333333338</v>
+        <v>34.62166666666671</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>34.9</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G74" t="n">
-        <v>34.63500000000005</v>
+        <v>34.62833333333338</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>34.9</v>
       </c>
       <c r="F75" t="n">
-        <v>20207.7338</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>34.64166666666672</v>
+        <v>34.63500000000005</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>34.9</v>
       </c>
       <c r="F76" t="n">
-        <v>120</v>
+        <v>20207.7338</v>
       </c>
       <c r="G76" t="n">
-        <v>34.64666666666673</v>
+        <v>34.64166666666672</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>34.9</v>
       </c>
       <c r="F77" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G77" t="n">
-        <v>34.65333333333339</v>
+        <v>34.64666666666673</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>34.9</v>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D78" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E78" t="n">
         <v>34.9</v>
       </c>
       <c r="F78" t="n">
-        <v>545000</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>34.66333333333339</v>
+        <v>34.65333333333339</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C79" t="n">
         <v>35</v>
@@ -2419,15 +2655,18 @@
         <v>35</v>
       </c>
       <c r="E79" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F79" t="n">
-        <v>55</v>
+        <v>545000</v>
       </c>
       <c r="G79" t="n">
-        <v>34.67333333333339</v>
+        <v>34.66333333333339</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,15 +2684,18 @@
         <v>35</v>
       </c>
       <c r="E80" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="F80" t="n">
-        <v>368</v>
+        <v>55</v>
       </c>
       <c r="G80" t="n">
-        <v>34.68333333333339</v>
+        <v>34.67333333333339</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>35</v>
       </c>
       <c r="F81" t="n">
-        <v>252.2896</v>
+        <v>368</v>
       </c>
       <c r="G81" t="n">
-        <v>34.69333333333338</v>
+        <v>34.68333333333339</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F82" t="n">
-        <v>23429.7786</v>
+        <v>252.2896</v>
       </c>
       <c r="G82" t="n">
-        <v>34.70500000000005</v>
+        <v>34.69333333333338</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>35.1</v>
       </c>
       <c r="F83" t="n">
-        <v>17603.5014</v>
+        <v>23429.7786</v>
       </c>
       <c r="G83" t="n">
-        <v>34.71666666666671</v>
+        <v>34.70500000000005</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F84" t="n">
-        <v>15</v>
+        <v>17603.5014</v>
       </c>
       <c r="G84" t="n">
-        <v>34.73000000000004</v>
+        <v>34.71666666666671</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>35.2</v>
       </c>
       <c r="C85" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D85" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E85" t="n">
         <v>35.2</v>
       </c>
       <c r="F85" t="n">
-        <v>200000</v>
+        <v>15</v>
       </c>
       <c r="G85" t="n">
-        <v>34.74500000000004</v>
+        <v>34.73000000000004</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C86" t="n">
         <v>35.3</v>
@@ -2601,15 +2858,18 @@
         <v>35.3</v>
       </c>
       <c r="E86" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="F86" t="n">
-        <v>1110.2733</v>
+        <v>200000</v>
       </c>
       <c r="G86" t="n">
-        <v>34.76000000000004</v>
+        <v>34.74500000000004</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>35.3</v>
       </c>
       <c r="F87" t="n">
-        <v>7624.739</v>
+        <v>1110.2733</v>
       </c>
       <c r="G87" t="n">
-        <v>34.77333333333338</v>
+        <v>34.76000000000004</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>35.3</v>
       </c>
       <c r="F88" t="n">
-        <v>19.0142</v>
+        <v>7624.739</v>
       </c>
       <c r="G88" t="n">
-        <v>34.78500000000005</v>
+        <v>34.77333333333338</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="D89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="E89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F89" t="n">
-        <v>2646.7264</v>
+        <v>19.0142</v>
       </c>
       <c r="G89" t="n">
-        <v>34.79166666666672</v>
+        <v>34.78500000000005</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="C90" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="D90" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="E90" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="F90" t="n">
-        <v>12953.7343</v>
+        <v>2646.7264</v>
       </c>
       <c r="G90" t="n">
-        <v>34.80333333333339</v>
+        <v>34.79166666666672</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C91" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="D91" t="n">
         <v>35.4</v>
       </c>
       <c r="E91" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F91" t="n">
-        <v>17648.8368</v>
+        <v>12953.7343</v>
       </c>
       <c r="G91" t="n">
-        <v>34.81000000000006</v>
+        <v>34.80333333333339</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="C92" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D92" t="n">
         <v>35.4</v>
       </c>
       <c r="E92" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F92" t="n">
-        <v>5187.4144</v>
+        <v>17648.8368</v>
       </c>
       <c r="G92" t="n">
-        <v>34.81666666666673</v>
+        <v>34.81000000000006</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>35.4</v>
       </c>
       <c r="C93" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D93" t="n">
         <v>35.4</v>
       </c>
       <c r="E93" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F93" t="n">
-        <v>2804.1895</v>
+        <v>5187.4144</v>
       </c>
       <c r="G93" t="n">
-        <v>34.83333333333339</v>
+        <v>34.81666666666673</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>35.4</v>
       </c>
       <c r="F94" t="n">
-        <v>565.3282</v>
+        <v>2804.1895</v>
       </c>
       <c r="G94" t="n">
-        <v>34.84833333333339</v>
+        <v>34.83333333333339</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F95" t="n">
-        <v>15</v>
+        <v>565.3282</v>
       </c>
       <c r="G95" t="n">
-        <v>34.86666666666672</v>
+        <v>34.84833333333339</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>35.5</v>
       </c>
       <c r="F96" t="n">
-        <v>3770.3483</v>
+        <v>15</v>
       </c>
       <c r="G96" t="n">
-        <v>34.88000000000007</v>
+        <v>34.86666666666672</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>35.5</v>
       </c>
       <c r="F97" t="n">
-        <v>15</v>
+        <v>3770.3483</v>
       </c>
       <c r="G97" t="n">
-        <v>34.8983333333334</v>
+        <v>34.88000000000007</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>35.5</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G98" t="n">
-        <v>34.9133333333334</v>
+        <v>34.8983333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>35.5</v>
       </c>
       <c r="F99" t="n">
-        <v>3918.9979</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>34.93000000000006</v>
+        <v>34.9133333333334</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>35.5</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>3918.9979</v>
       </c>
       <c r="G100" t="n">
-        <v>34.94500000000006</v>
+        <v>34.93000000000006</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>35.5</v>
       </c>
       <c r="C101" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D101" t="n">
         <v>35.5</v>
       </c>
       <c r="E101" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="F101" t="n">
-        <v>492.8546</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>34.95666666666673</v>
+        <v>34.94500000000006</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="C102" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="D102" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="E102" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="F102" t="n">
-        <v>15</v>
+        <v>492.8546</v>
       </c>
       <c r="G102" t="n">
-        <v>34.97166666666673</v>
+        <v>34.95666666666673</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>35.4</v>
       </c>
       <c r="C103" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D103" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E103" t="n">
         <v>35.4</v>
       </c>
       <c r="F103" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G103" t="n">
-        <v>34.98833333333339</v>
+        <v>34.97166666666673</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>35.4</v>
       </c>
       <c r="C104" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="D104" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="E104" t="n">
         <v>35.4</v>
       </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>35.00166666666674</v>
+        <v>34.98833333333339</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>35.4</v>
       </c>
       <c r="F105" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>35.01500000000007</v>
+        <v>35.00166666666674</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>35.4</v>
       </c>
       <c r="F106" t="n">
-        <v>1773.4436</v>
+        <v>15</v>
       </c>
       <c r="G106" t="n">
-        <v>35.02666666666674</v>
+        <v>35.01500000000007</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>35.4</v>
       </c>
       <c r="F107" t="n">
-        <v>888.9331</v>
+        <v>1773.4436</v>
       </c>
       <c r="G107" t="n">
-        <v>35.03666666666674</v>
+        <v>35.02666666666674</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>35.4</v>
       </c>
       <c r="F108" t="n">
-        <v>2975.1739</v>
+        <v>888.9331</v>
       </c>
       <c r="G108" t="n">
-        <v>35.04833333333341</v>
+        <v>35.03666666666674</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>35.4</v>
       </c>
       <c r="F109" t="n">
-        <v>15</v>
+        <v>2975.1739</v>
       </c>
       <c r="G109" t="n">
-        <v>35.05833333333341</v>
+        <v>35.04833333333341</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3231,9 +3560,12 @@
         <v>15</v>
       </c>
       <c r="G110" t="n">
-        <v>35.07166666666674</v>
+        <v>35.05833333333341</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>35.4</v>
       </c>
       <c r="F111" t="n">
-        <v>28.27683615</v>
+        <v>15</v>
       </c>
       <c r="G111" t="n">
-        <v>35.08166666666674</v>
+        <v>35.07166666666674</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>35.4</v>
       </c>
       <c r="F112" t="n">
-        <v>18838.8035</v>
+        <v>28.27683615</v>
       </c>
       <c r="G112" t="n">
-        <v>35.09166666666674</v>
+        <v>35.08166666666674</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>35.4</v>
       </c>
       <c r="F113" t="n">
-        <v>445.575</v>
+        <v>18838.8035</v>
       </c>
       <c r="G113" t="n">
-        <v>35.10166666666674</v>
+        <v>35.09166666666674</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>35.4</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>445.575</v>
       </c>
       <c r="G114" t="n">
-        <v>35.11166666666674</v>
+        <v>35.10166666666674</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>35.4</v>
       </c>
       <c r="F115" t="n">
-        <v>111.6574</v>
+        <v>15</v>
       </c>
       <c r="G115" t="n">
-        <v>35.12166666666674</v>
+        <v>35.11166666666674</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>35.4</v>
       </c>
       <c r="F116" t="n">
-        <v>14175.6867</v>
+        <v>111.6574</v>
       </c>
       <c r="G116" t="n">
-        <v>35.13166666666674</v>
+        <v>35.12166666666674</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>35.4</v>
       </c>
       <c r="F117" t="n">
-        <v>83.81270000000001</v>
+        <v>14175.6867</v>
       </c>
       <c r="G117" t="n">
-        <v>35.14166666666674</v>
+        <v>35.13166666666674</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>35.4</v>
       </c>
       <c r="C118" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D118" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E118" t="n">
         <v>35.4</v>
       </c>
       <c r="F118" t="n">
-        <v>56229.2898</v>
+        <v>83.81270000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>35.1533333333334</v>
+        <v>35.14166666666674</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3806,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C119" t="n">
         <v>35.5</v>
@@ -3459,15 +3815,18 @@
         <v>35.5</v>
       </c>
       <c r="E119" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F119" t="n">
-        <v>47740.8529</v>
+        <v>56229.2898</v>
       </c>
       <c r="G119" t="n">
-        <v>35.16500000000006</v>
+        <v>35.1533333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="C120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="D120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="E120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="F120" t="n">
-        <v>32354.73087818</v>
+        <v>47740.8529</v>
       </c>
       <c r="G120" t="n">
-        <v>35.1733333333334</v>
+        <v>35.16500000000006</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="D121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="F121" t="n">
-        <v>24059.2233</v>
+        <v>32354.73087818</v>
       </c>
       <c r="G121" t="n">
-        <v>35.18000000000006</v>
+        <v>35.1733333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>35.2</v>
       </c>
       <c r="F122" t="n">
-        <v>22901.3049</v>
+        <v>24059.2233</v>
       </c>
       <c r="G122" t="n">
-        <v>35.18833333333339</v>
+        <v>35.18000000000006</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>35.2</v>
       </c>
       <c r="F123" t="n">
-        <v>21447.29</v>
+        <v>22901.3049</v>
       </c>
       <c r="G123" t="n">
-        <v>35.19833333333339</v>
+        <v>35.18833333333339</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F124" t="n">
-        <v>70429.7521</v>
+        <v>21447.29</v>
       </c>
       <c r="G124" t="n">
-        <v>35.20500000000006</v>
+        <v>35.19833333333339</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F125" t="n">
-        <v>54319.2227</v>
+        <v>70429.7521</v>
       </c>
       <c r="G125" t="n">
-        <v>35.21000000000006</v>
+        <v>35.20500000000006</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>35</v>
       </c>
       <c r="F126" t="n">
-        <v>1438.3678</v>
+        <v>54319.2227</v>
       </c>
       <c r="G126" t="n">
-        <v>35.21333333333339</v>
+        <v>35.21000000000006</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F127" t="n">
-        <v>15</v>
+        <v>1438.3678</v>
       </c>
       <c r="G127" t="n">
-        <v>35.22666666666672</v>
+        <v>35.21333333333339</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>35.4</v>
       </c>
       <c r="F128" t="n">
-        <v>2800</v>
+        <v>15</v>
       </c>
       <c r="G128" t="n">
-        <v>35.23833333333339</v>
+        <v>35.22666666666672</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>35.4</v>
       </c>
       <c r="C129" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D129" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E129" t="n">
         <v>35.4</v>
       </c>
       <c r="F129" t="n">
-        <v>4304.9401</v>
+        <v>2800</v>
       </c>
       <c r="G129" t="n">
-        <v>35.25000000000006</v>
+        <v>35.23833333333339</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,7 +4125,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C130" t="n">
         <v>35.5</v>
@@ -3745,15 +4134,18 @@
         <v>35.5</v>
       </c>
       <c r="E130" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F130" t="n">
-        <v>4546.6019</v>
+        <v>4304.9401</v>
       </c>
       <c r="G130" t="n">
-        <v>35.26166666666673</v>
+        <v>35.25000000000006</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>35.5</v>
       </c>
       <c r="F131" t="n">
-        <v>1601.2158</v>
+        <v>4546.6019</v>
       </c>
       <c r="G131" t="n">
-        <v>35.27166666666673</v>
+        <v>35.26166666666673</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>35.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4546.6303</v>
+        <v>1601.2158</v>
       </c>
       <c r="G132" t="n">
-        <v>35.28333333333339</v>
+        <v>35.27166666666673</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="C133" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="D133" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="E133" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="F133" t="n">
-        <v>56229.2898</v>
+        <v>4546.6303</v>
       </c>
       <c r="G133" t="n">
-        <v>35.28166666666672</v>
+        <v>35.28333333333339</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="C134" t="n">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="D134" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="E134" t="n">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="F134" t="n">
-        <v>18</v>
+        <v>56229.2898</v>
       </c>
       <c r="G134" t="n">
-        <v>35.29166666666672</v>
+        <v>35.28166666666672</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="C135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="D135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="E135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="F135" t="n">
-        <v>18838.8035</v>
+        <v>18</v>
       </c>
       <c r="G135" t="n">
         <v>35.29166666666672</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>34.9</v>
       </c>
       <c r="F136" t="n">
-        <v>3019.6185</v>
+        <v>18838.8035</v>
       </c>
       <c r="G136" t="n">
         <v>35.29166666666672</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C137" t="n">
         <v>34.9</v>
       </c>
       <c r="D137" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E137" t="n">
         <v>34.9</v>
       </c>
       <c r="F137" t="n">
-        <v>16975.1739</v>
+        <v>3019.6185</v>
       </c>
       <c r="G137" t="n">
         <v>35.29166666666672</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>35</v>
       </c>
       <c r="C138" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D138" t="n">
         <v>35</v>
       </c>
       <c r="E138" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F138" t="n">
-        <v>1509.2447</v>
+        <v>16975.1739</v>
       </c>
       <c r="G138" t="n">
         <v>35.29166666666672</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>35</v>
       </c>
       <c r="F139" t="n">
-        <v>4039.3177</v>
+        <v>1509.2447</v>
       </c>
       <c r="G139" t="n">
         <v>35.29166666666672</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F140" t="n">
-        <v>28735.6321</v>
+        <v>4039.3177</v>
       </c>
       <c r="G140" t="n">
-        <v>35.29000000000006</v>
+        <v>35.29166666666672</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>34.9</v>
       </c>
       <c r="F141" t="n">
-        <v>1199.6426</v>
+        <v>28735.6321</v>
       </c>
       <c r="G141" t="n">
-        <v>35.28833333333339</v>
+        <v>35.29000000000006</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>34.9</v>
       </c>
       <c r="F142" t="n">
-        <v>30122.5179</v>
+        <v>1199.6426</v>
       </c>
       <c r="G142" t="n">
-        <v>35.28500000000006</v>
+        <v>35.28833333333339</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F143" t="n">
-        <v>35</v>
+        <v>30122.5179</v>
       </c>
       <c r="G143" t="n">
-        <v>35.2833333333334</v>
+        <v>35.28500000000006</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G144" t="n">
-        <v>35.2783333333334</v>
+        <v>35.2833333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>34.9</v>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G145" t="n">
-        <v>35.27166666666673</v>
+        <v>35.2783333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>34.9</v>
       </c>
       <c r="F146" t="n">
-        <v>11854</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="n">
-        <v>35.26500000000006</v>
+        <v>35.27166666666673</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>34.9</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>11854</v>
       </c>
       <c r="G147" t="n">
-        <v>35.2583333333334</v>
+        <v>35.26500000000006</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>34.9</v>
       </c>
       <c r="F148" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="n">
-        <v>35.25166666666673</v>
+        <v>35.2583333333334</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>34.9</v>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>4000</v>
       </c>
       <c r="G149" t="n">
-        <v>35.2483333333334</v>
+        <v>35.25166666666673</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F150" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G150" t="n">
-        <v>35.24166666666672</v>
+        <v>35.2483333333334</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F151" t="n">
-        <v>26951.5904</v>
+        <v>15</v>
       </c>
       <c r="G151" t="n">
-        <v>35.23833333333339</v>
+        <v>35.24166666666672</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F152" t="n">
-        <v>8116</v>
+        <v>26951.5904</v>
       </c>
       <c r="G152" t="n">
-        <v>35.23500000000006</v>
+        <v>35.23833333333339</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>34.8</v>
       </c>
       <c r="F153" t="n">
-        <v>3000</v>
+        <v>8116</v>
       </c>
       <c r="G153" t="n">
-        <v>35.22500000000007</v>
+        <v>35.23500000000006</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>34.8</v>
       </c>
       <c r="F154" t="n">
-        <v>3605.6617</v>
+        <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>35.21500000000007</v>
+        <v>35.22500000000007</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F155" t="n">
-        <v>505003</v>
+        <v>3605.6617</v>
       </c>
       <c r="G155" t="n">
-        <v>35.20166666666673</v>
+        <v>35.21500000000007</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>34.7</v>
       </c>
       <c r="F156" t="n">
-        <v>1601.2158</v>
+        <v>505003</v>
       </c>
       <c r="G156" t="n">
-        <v>35.1883333333334</v>
+        <v>35.20166666666673</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>34.7</v>
       </c>
       <c r="F157" t="n">
-        <v>33063.7468</v>
+        <v>1601.2158</v>
       </c>
       <c r="G157" t="n">
-        <v>35.17500000000006</v>
+        <v>35.1883333333334</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F158" t="n">
-        <v>15</v>
+        <v>33063.7468</v>
       </c>
       <c r="G158" t="n">
-        <v>35.16500000000006</v>
+        <v>35.17500000000006</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F159" t="n">
-        <v>21477.8908</v>
+        <v>15</v>
       </c>
       <c r="G159" t="n">
-        <v>35.15166666666673</v>
+        <v>35.16500000000006</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>34.7</v>
       </c>
       <c r="F160" t="n">
-        <v>3131.2615</v>
+        <v>21477.8908</v>
       </c>
       <c r="G160" t="n">
-        <v>35.13833333333339</v>
+        <v>35.15166666666673</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>34.7</v>
       </c>
       <c r="F161" t="n">
-        <v>45555.0106</v>
+        <v>3131.2615</v>
       </c>
       <c r="G161" t="n">
-        <v>35.13000000000006</v>
+        <v>35.13833333333339</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>34.7</v>
       </c>
       <c r="F162" t="n">
-        <v>3000.2025</v>
+        <v>45555.0106</v>
       </c>
       <c r="G162" t="n">
-        <v>35.11833333333338</v>
+        <v>35.13000000000006</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>34.7</v>
       </c>
       <c r="F163" t="n">
-        <v>264</v>
+        <v>3000.2025</v>
       </c>
       <c r="G163" t="n">
-        <v>35.10500000000005</v>
+        <v>35.11833333333338</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F164" t="n">
-        <v>851.7247</v>
+        <v>264</v>
       </c>
       <c r="G164" t="n">
-        <v>35.09666666666671</v>
+        <v>35.10500000000005</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F165" t="n">
-        <v>1560</v>
+        <v>851.7247</v>
       </c>
       <c r="G165" t="n">
-        <v>35.08666666666672</v>
+        <v>35.09666666666671</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>34.8</v>
       </c>
       <c r="F166" t="n">
-        <v>31444.3549</v>
+        <v>1560</v>
       </c>
       <c r="G166" t="n">
-        <v>35.07666666666672</v>
+        <v>35.08666666666672</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C167" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D167" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E167" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F167" t="n">
-        <v>28621.0409</v>
+        <v>31444.3549</v>
       </c>
       <c r="G167" t="n">
-        <v>35.07000000000005</v>
+        <v>35.07666666666672</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C168" t="n">
         <v>35</v>
       </c>
-      <c r="C168" t="n">
-        <v>35.3</v>
-      </c>
       <c r="D168" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="E168" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F168" t="n">
-        <v>107290.1685</v>
+        <v>28621.0409</v>
       </c>
       <c r="G168" t="n">
-        <v>35.06833333333338</v>
+        <v>35.07000000000005</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="C169" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D169" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E169" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="F169" t="n">
-        <v>29863.2963</v>
+        <v>107290.1685</v>
       </c>
       <c r="G169" t="n">
-        <v>35.07000000000005</v>
+        <v>35.06833333333338</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>35.5</v>
       </c>
       <c r="C170" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D170" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E170" t="n">
         <v>35.5</v>
       </c>
       <c r="F170" t="n">
-        <v>501</v>
+        <v>29863.2963</v>
       </c>
       <c r="G170" t="n">
-        <v>35.07333333333338</v>
+        <v>35.07000000000005</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C171" t="n">
         <v>35.6</v>
       </c>
-      <c r="C171" t="n">
-        <v>35.7</v>
-      </c>
       <c r="D171" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="E171" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F171" t="n">
-        <v>57665.68618207</v>
+        <v>501</v>
       </c>
       <c r="G171" t="n">
-        <v>35.07833333333338</v>
+        <v>35.07333333333338</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5343,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="C172" t="n">
         <v>35.7</v>
@@ -4837,15 +5352,18 @@
         <v>35.7</v>
       </c>
       <c r="E172" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F172" t="n">
-        <v>209856.0955</v>
+        <v>57665.68618207</v>
       </c>
       <c r="G172" t="n">
-        <v>35.08333333333337</v>
+        <v>35.07833333333338</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,21 +5375,24 @@
         <v>35.7</v>
       </c>
       <c r="C173" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="D173" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="E173" t="n">
         <v>35.7</v>
       </c>
       <c r="F173" t="n">
-        <v>44312.79771793</v>
+        <v>209856.0955</v>
       </c>
       <c r="G173" t="n">
-        <v>35.09000000000004</v>
+        <v>35.08333333333337</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>35.7</v>
       </c>
       <c r="F174" t="n">
-        <v>28529.5364</v>
+        <v>44312.79771793</v>
       </c>
       <c r="G174" t="n">
-        <v>35.09666666666671</v>
+        <v>35.09000000000004</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +5430,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="C175" t="n">
         <v>35.8</v>
@@ -4915,15 +5439,18 @@
         <v>35.8</v>
       </c>
       <c r="E175" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F175" t="n">
-        <v>18705.5084</v>
+        <v>28529.5364</v>
       </c>
       <c r="G175" t="n">
-        <v>35.10333333333337</v>
+        <v>35.09666666666671</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,21 +5462,24 @@
         <v>35.8</v>
       </c>
       <c r="C176" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="D176" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E176" t="n">
         <v>35.8</v>
       </c>
       <c r="F176" t="n">
-        <v>69647.3884</v>
+        <v>18705.5084</v>
       </c>
       <c r="G176" t="n">
-        <v>35.11166666666671</v>
+        <v>35.10333333333337</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5488,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="C177" t="n">
         <v>35.9</v>
@@ -4967,15 +5497,18 @@
         <v>35.9</v>
       </c>
       <c r="E177" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="F177" t="n">
-        <v>225331.86479637</v>
+        <v>69647.3884</v>
       </c>
       <c r="G177" t="n">
-        <v>35.12000000000004</v>
+        <v>35.11166666666671</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>35.9</v>
       </c>
       <c r="C178" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="D178" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="E178" t="n">
         <v>35.9</v>
       </c>
       <c r="F178" t="n">
-        <v>355203.609</v>
+        <v>225331.86479637</v>
       </c>
       <c r="G178" t="n">
-        <v>35.13000000000004</v>
+        <v>35.12000000000004</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C179" t="n">
         <v>36.1</v>
       </c>
-      <c r="C179" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D179" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="E179" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F179" t="n">
-        <v>233939.86431657</v>
+        <v>355203.609</v>
       </c>
       <c r="G179" t="n">
-        <v>35.1416666666667</v>
+        <v>35.13000000000004</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C180" t="n">
         <v>36.2</v>
       </c>
       <c r="D180" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E180" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F180" t="n">
-        <v>97086.93318343</v>
+        <v>233939.86431657</v>
       </c>
       <c r="G180" t="n">
-        <v>35.1566666666667</v>
+        <v>35.1416666666667</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D181" t="n">
         <v>36.3</v>
       </c>
-      <c r="C181" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>36.4</v>
-      </c>
       <c r="E181" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F181" t="n">
-        <v>137680.4032</v>
+        <v>97086.93318343</v>
       </c>
       <c r="G181" t="n">
-        <v>35.1766666666667</v>
+        <v>35.1566666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C182" t="n">
         <v>36.4</v>
       </c>
-      <c r="C182" t="n">
-        <v>36.7</v>
-      </c>
       <c r="D182" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E182" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F182" t="n">
-        <v>670609.746</v>
+        <v>137680.4032</v>
       </c>
       <c r="G182" t="n">
-        <v>35.2016666666667</v>
+        <v>35.1766666666667</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="C183" t="n">
         <v>36.7</v>
       </c>
       <c r="D183" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E183" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F183" t="n">
-        <v>35387.3733</v>
+        <v>670609.746</v>
       </c>
       <c r="G183" t="n">
-        <v>35.2266666666667</v>
+        <v>35.2016666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,25 +5691,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C184" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="D184" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E184" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="F184" t="n">
-        <v>88109.9797</v>
+        <v>35387.3733</v>
       </c>
       <c r="G184" t="n">
-        <v>35.24833333333337</v>
+        <v>35.2266666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5166,25 +5720,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C185" t="n">
         <v>36.4</v>
       </c>
-      <c r="C185" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D185" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E185" t="n">
         <v>36.2</v>
       </c>
       <c r="F185" t="n">
-        <v>52264.8947</v>
+        <v>88109.9797</v>
       </c>
       <c r="G185" t="n">
-        <v>35.26833333333337</v>
+        <v>35.24833333333337</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C186" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D186" t="n">
         <v>36.6</v>
-      </c>
-      <c r="D186" t="n">
-        <v>36.7</v>
       </c>
       <c r="E186" t="n">
         <v>36.2</v>
       </c>
       <c r="F186" t="n">
-        <v>88475.61688854999</v>
+        <v>52264.8947</v>
       </c>
       <c r="G186" t="n">
-        <v>35.29500000000004</v>
+        <v>35.26833333333337</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C187" t="n">
         <v>36.6</v>
       </c>
-      <c r="C187" t="n">
-        <v>36.8</v>
-      </c>
       <c r="D187" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E187" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="F187" t="n">
-        <v>233484.2941</v>
+        <v>88475.61688854999</v>
       </c>
       <c r="G187" t="n">
-        <v>35.31833333333337</v>
+        <v>35.29500000000004</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C188" t="n">
         <v>36.8</v>
       </c>
-      <c r="C188" t="n">
-        <v>37.1</v>
-      </c>
       <c r="D188" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="E188" t="n">
         <v>36.6</v>
       </c>
       <c r="F188" t="n">
-        <v>207102.19341158</v>
+        <v>233484.2941</v>
       </c>
       <c r="G188" t="n">
-        <v>35.3466666666667</v>
+        <v>35.31833333333337</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="C189" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D189" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E189" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F189" t="n">
-        <v>71423.2509</v>
+        <v>207102.19341158</v>
       </c>
       <c r="G189" t="n">
-        <v>35.37000000000003</v>
+        <v>35.3466666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,7 +5865,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C190" t="n">
         <v>36.9</v>
@@ -5308,12 +5877,15 @@
         <v>36.9</v>
       </c>
       <c r="F190" t="n">
-        <v>160174.4009</v>
+        <v>71423.2509</v>
       </c>
       <c r="G190" t="n">
-        <v>35.39333333333337</v>
+        <v>35.37000000000003</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5325,21 +5897,24 @@
         <v>36.9</v>
       </c>
       <c r="C191" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D191" t="n">
         <v>37</v>
       </c>
       <c r="E191" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F191" t="n">
-        <v>146084.3951181</v>
+        <v>160174.4009</v>
       </c>
       <c r="G191" t="n">
-        <v>35.41333333333337</v>
+        <v>35.39333333333337</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C192" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D192" t="n">
         <v>37</v>
       </c>
       <c r="E192" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F192" t="n">
-        <v>44582.7384</v>
+        <v>146084.3951181</v>
       </c>
       <c r="G192" t="n">
-        <v>35.4366666666667</v>
+        <v>35.41333333333337</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,10 +5952,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>37</v>
+      </c>
+      <c r="C193" t="n">
         <v>36.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>36.8</v>
       </c>
       <c r="D193" t="n">
         <v>37</v>
@@ -5386,12 +5964,15 @@
         <v>36.8</v>
       </c>
       <c r="F193" t="n">
-        <v>117330.1557</v>
+        <v>44582.7384</v>
       </c>
       <c r="G193" t="n">
-        <v>35.47000000000003</v>
+        <v>35.4366666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C194" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D194" t="n">
         <v>37</v>
       </c>
       <c r="E194" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F194" t="n">
-        <v>107130.3853</v>
+        <v>117330.1557</v>
       </c>
       <c r="G194" t="n">
-        <v>35.49500000000003</v>
+        <v>35.47000000000003</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>37</v>
+      </c>
+      <c r="C195" t="n">
+        <v>37</v>
+      </c>
+      <c r="D195" t="n">
+        <v>37</v>
+      </c>
+      <c r="E195" t="n">
         <v>36.9</v>
       </c>
-      <c r="C195" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D195" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E195" t="n">
-        <v>36.7</v>
-      </c>
       <c r="F195" t="n">
-        <v>737068.82288842</v>
+        <v>107130.3853</v>
       </c>
       <c r="G195" t="n">
-        <v>35.5366666666667</v>
+        <v>35.49500000000003</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C196" t="n">
         <v>37.4</v>
       </c>
-      <c r="C196" t="n">
-        <v>37.7</v>
-      </c>
       <c r="D196" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="E196" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
       </c>
       <c r="F196" t="n">
-        <v>1272899.659</v>
+        <v>737068.82288842</v>
       </c>
       <c r="G196" t="n">
-        <v>35.58333333333336</v>
+        <v>35.5366666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="C197" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="D197" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="E197" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="F197" t="n">
-        <v>844870.03665014</v>
+        <v>1272899.659</v>
       </c>
       <c r="G197" t="n">
-        <v>35.6316666666667</v>
+        <v>35.58333333333336</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C198" t="n">
         <v>37.8</v>
-      </c>
-      <c r="C198" t="n">
-        <v>37.3</v>
       </c>
       <c r="D198" t="n">
         <v>37.8</v>
       </c>
       <c r="E198" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="F198" t="n">
-        <v>603135.67114986</v>
+        <v>844870.03665014</v>
       </c>
       <c r="G198" t="n">
-        <v>35.67000000000004</v>
+        <v>35.6316666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="C199" t="n">
         <v>37.3</v>
       </c>
       <c r="D199" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="E199" t="n">
         <v>37.3</v>
       </c>
       <c r="F199" t="n">
-        <v>34624.1614</v>
+        <v>603135.67114986</v>
       </c>
       <c r="G199" t="n">
-        <v>35.70833333333337</v>
+        <v>35.67000000000004</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="C200" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="D200" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="E200" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="F200" t="n">
-        <v>48421.487</v>
+        <v>34624.1614</v>
       </c>
       <c r="G200" t="n">
-        <v>35.7516666666667</v>
+        <v>35.70833333333337</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="C201" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="D201" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="E201" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="F201" t="n">
-        <v>16401.9601</v>
+        <v>48421.487</v>
       </c>
       <c r="G201" t="n">
-        <v>35.7966666666667</v>
+        <v>35.7516666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5611,21 +6216,24 @@
         <v>37.6</v>
       </c>
       <c r="C202" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="D202" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="E202" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="F202" t="n">
-        <v>22809.2651</v>
+        <v>16401.9601</v>
       </c>
       <c r="G202" t="n">
-        <v>35.84333333333336</v>
+        <v>35.7966666666667</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5637,21 +6245,24 @@
         <v>37.6</v>
       </c>
       <c r="C203" t="n">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="D203" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E203" t="n">
         <v>37.6</v>
       </c>
-      <c r="E203" t="n">
-        <v>37.2</v>
-      </c>
       <c r="F203" t="n">
-        <v>455156.0565</v>
+        <v>22809.2651</v>
       </c>
       <c r="G203" t="n">
-        <v>35.88000000000002</v>
+        <v>35.84333333333336</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C204" t="n">
         <v>37.2</v>
-      </c>
-      <c r="C204" t="n">
-        <v>37.6</v>
       </c>
       <c r="D204" t="n">
         <v>37.6</v>
       </c>
       <c r="E204" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F204" t="n">
-        <v>50113.988</v>
+        <v>455156.0565</v>
       </c>
       <c r="G204" t="n">
-        <v>35.92500000000003</v>
+        <v>35.88000000000002</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="C205" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="D205" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="E205" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="F205" t="n">
-        <v>8223.7528</v>
+        <v>50113.988</v>
       </c>
       <c r="G205" t="n">
-        <v>35.96833333333336</v>
+        <v>35.92500000000003</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="C206" t="n">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
       <c r="D206" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="E206" t="n">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
       <c r="F206" t="n">
-        <v>478786.431</v>
+        <v>8223.7528</v>
       </c>
       <c r="G206" t="n">
-        <v>35.99666666666668</v>
+        <v>35.96833333333336</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="C207" t="n">
-        <v>37.1</v>
+        <v>36.6</v>
       </c>
       <c r="D207" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="E207" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="F207" t="n">
-        <v>218.8329</v>
+        <v>478786.431</v>
       </c>
       <c r="G207" t="n">
-        <v>36.03333333333335</v>
+        <v>35.99666666666668</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C208" t="n">
         <v>37.1</v>
       </c>
-      <c r="C208" t="n">
-        <v>36.6</v>
-      </c>
       <c r="D208" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="E208" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="F208" t="n">
-        <v>27870.4945</v>
+        <v>218.8329</v>
       </c>
       <c r="G208" t="n">
-        <v>36.06166666666668</v>
+        <v>36.03333333333335</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="C209" t="n">
         <v>36.6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>36.9</v>
       </c>
       <c r="D209" t="n">
         <v>37.1</v>
       </c>
       <c r="E209" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F209" t="n">
-        <v>107897.3905</v>
+        <v>27870.4945</v>
       </c>
       <c r="G209" t="n">
-        <v>36.09500000000001</v>
+        <v>36.06166666666668</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="C210" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D210" t="n">
-        <v>36.8</v>
+        <v>37.1</v>
       </c>
       <c r="E210" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F210" t="n">
-        <v>5289.5569</v>
+        <v>107897.3905</v>
       </c>
       <c r="G210" t="n">
-        <v>36.12500000000001</v>
+        <v>36.09500000000001</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,10 +6474,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C211" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="D211" t="n">
         <v>36.8</v>
@@ -5854,12 +6486,15 @@
         <v>36.6</v>
       </c>
       <c r="F211" t="n">
-        <v>57269.7377</v>
+        <v>5289.5569</v>
       </c>
       <c r="G211" t="n">
-        <v>36.15333333333334</v>
+        <v>36.12500000000001</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5874,18 +6509,21 @@
         <v>36.6</v>
       </c>
       <c r="D212" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E212" t="n">
         <v>36.6</v>
       </c>
-      <c r="E212" t="n">
-        <v>36.4</v>
-      </c>
       <c r="F212" t="n">
-        <v>139727.7013</v>
+        <v>57269.7377</v>
       </c>
       <c r="G212" t="n">
-        <v>36.18333333333334</v>
+        <v>36.15333333333334</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5903,15 +6541,18 @@
         <v>36.6</v>
       </c>
       <c r="E213" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F213" t="n">
-        <v>129.6428</v>
+        <v>139727.7013</v>
       </c>
       <c r="G213" t="n">
-        <v>36.21333333333334</v>
+        <v>36.18333333333334</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C214" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="D214" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E214" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F214" t="n">
-        <v>81644.7022</v>
+        <v>129.6428</v>
       </c>
       <c r="G214" t="n">
-        <v>36.24666666666667</v>
+        <v>36.21333333333334</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,7 +6590,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C215" t="n">
         <v>36.8</v>
@@ -5955,15 +6599,18 @@
         <v>36.8</v>
       </c>
       <c r="E215" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F215" t="n">
-        <v>40763.52896657</v>
+        <v>81644.7022</v>
       </c>
       <c r="G215" t="n">
-        <v>36.28166666666667</v>
+        <v>36.24666666666667</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C216" t="n">
-        <v>36.1</v>
+        <v>36.8</v>
       </c>
       <c r="D216" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E216" t="n">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="F216" t="n">
-        <v>229542.4237</v>
+        <v>40763.52896657</v>
       </c>
       <c r="G216" t="n">
-        <v>36.30500000000001</v>
+        <v>36.28166666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="C217" t="n">
         <v>36.1</v>
       </c>
       <c r="D217" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="E217" t="n">
         <v>36.1</v>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>229542.4237</v>
       </c>
       <c r="G217" t="n">
-        <v>36.32833333333335</v>
+        <v>36.30500000000001</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C218" t="n">
         <v>36.1</v>
       </c>
-      <c r="C218" t="n">
-        <v>36</v>
-      </c>
       <c r="D218" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E218" t="n">
         <v>36.1</v>
       </c>
-      <c r="E218" t="n">
-        <v>35.9</v>
-      </c>
       <c r="F218" t="n">
-        <v>129000</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="n">
-        <v>36.34666666666668</v>
+        <v>36.32833333333335</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C219" t="n">
         <v>36</v>
       </c>
-      <c r="C219" t="n">
-        <v>36.5</v>
-      </c>
       <c r="D219" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="E219" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="F219" t="n">
-        <v>29357.8027</v>
+        <v>129000</v>
       </c>
       <c r="G219" t="n">
-        <v>36.37666666666668</v>
+        <v>36.34666666666668</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,7 +6735,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="C220" t="n">
         <v>36.5</v>
@@ -6085,15 +6744,18 @@
         <v>36.5</v>
       </c>
       <c r="E220" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="F220" t="n">
-        <v>71.1728</v>
+        <v>29357.8027</v>
       </c>
       <c r="G220" t="n">
-        <v>36.40666666666668</v>
+        <v>36.37666666666668</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>36.5</v>
       </c>
       <c r="F221" t="n">
-        <v>388.9784</v>
+        <v>71.1728</v>
       </c>
       <c r="G221" t="n">
-        <v>36.43666666666669</v>
+        <v>36.40666666666668</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,7 +6793,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C222" t="n">
         <v>36.5</v>
@@ -6137,15 +6802,18 @@
         <v>36.5</v>
       </c>
       <c r="E222" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F222" t="n">
-        <v>5091.9982</v>
+        <v>388.9784</v>
       </c>
       <c r="G222" t="n">
-        <v>36.46666666666669</v>
+        <v>36.43666666666669</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C223" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D223" t="n">
         <v>36.5</v>
       </c>
       <c r="E223" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F223" t="n">
-        <v>65763.6382</v>
+        <v>5091.9982</v>
       </c>
       <c r="G223" t="n">
-        <v>36.49500000000003</v>
+        <v>36.46666666666669</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C224" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D224" t="n">
         <v>36.5</v>
       </c>
       <c r="E224" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F224" t="n">
-        <v>37258.2747</v>
+        <v>65763.6382</v>
       </c>
       <c r="G224" t="n">
-        <v>36.52166666666669</v>
+        <v>36.49500000000003</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C225" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D225" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E225" t="n">
         <v>36.3</v>
       </c>
       <c r="F225" t="n">
-        <v>95809.64350000001</v>
+        <v>37258.2747</v>
       </c>
       <c r="G225" t="n">
-        <v>36.5466666666667</v>
+        <v>36.52166666666669</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6235,21 +6912,24 @@
         <v>36.3</v>
       </c>
       <c r="C226" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D226" t="n">
         <v>36.3</v>
       </c>
       <c r="E226" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F226" t="n">
-        <v>18019.9087</v>
+        <v>95809.64350000001</v>
       </c>
       <c r="G226" t="n">
-        <v>36.57000000000002</v>
+        <v>36.5466666666667</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C227" t="n">
         <v>36.2</v>
       </c>
       <c r="D227" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E227" t="n">
         <v>36.2</v>
       </c>
-      <c r="E227" t="n">
-        <v>36.1</v>
-      </c>
       <c r="F227" t="n">
-        <v>50423.8027</v>
+        <v>18019.9087</v>
       </c>
       <c r="G227" t="n">
-        <v>36.59000000000002</v>
+        <v>36.57000000000002</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C228" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D228" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E228" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="F228" t="n">
-        <v>19.8619</v>
+        <v>50423.8027</v>
       </c>
       <c r="G228" t="n">
-        <v>36.60833333333335</v>
+        <v>36.59000000000002</v>
       </c>
       <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6313,21 +6999,24 @@
         <v>36.4</v>
       </c>
       <c r="C229" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="D229" t="n">
         <v>36.4</v>
       </c>
       <c r="E229" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="F229" t="n">
-        <v>1776.8418</v>
+        <v>19.8619</v>
       </c>
       <c r="G229" t="n">
-        <v>36.61833333333335</v>
+        <v>36.60833333333335</v>
       </c>
       <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="C230" t="n">
         <v>36.1</v>
       </c>
       <c r="D230" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="E230" t="n">
         <v>36.1</v>
       </c>
       <c r="F230" t="n">
-        <v>20213.8587</v>
+        <v>1776.8418</v>
       </c>
       <c r="G230" t="n">
-        <v>36.62666666666668</v>
+        <v>36.61833333333335</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="C231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="D231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="E231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="F231" t="n">
-        <v>22.048</v>
+        <v>20213.8587</v>
       </c>
       <c r="G231" t="n">
-        <v>36.63833333333335</v>
+        <v>36.62666666666668</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>36.4</v>
       </c>
       <c r="F232" t="n">
-        <v>62181.0635</v>
+        <v>22.048</v>
       </c>
       <c r="G232" t="n">
-        <v>36.65000000000002</v>
+        <v>36.63833333333335</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>36.4</v>
       </c>
       <c r="F233" t="n">
-        <v>16941.9434</v>
+        <v>62181.0635</v>
       </c>
       <c r="G233" t="n">
-        <v>36.66000000000002</v>
+        <v>36.65000000000002</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C234" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="D234" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E234" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="F234" t="n">
-        <v>191537.4432</v>
+        <v>16941.9434</v>
       </c>
       <c r="G234" t="n">
-        <v>36.66333333333335</v>
+        <v>36.66000000000002</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6469,21 +7173,24 @@
         <v>36.2</v>
       </c>
       <c r="C235" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="D235" t="n">
         <v>36.2</v>
       </c>
       <c r="E235" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="F235" t="n">
-        <v>1498.9962</v>
+        <v>191537.4432</v>
       </c>
       <c r="G235" t="n">
-        <v>36.67000000000001</v>
+        <v>36.66333333333335</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F236" t="n">
-        <v>69.408</v>
+        <v>1498.9962</v>
       </c>
       <c r="G236" t="n">
-        <v>36.67666666666668</v>
+        <v>36.67000000000001</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6521,21 +7231,24 @@
         <v>36.3</v>
       </c>
       <c r="C237" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D237" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E237" t="n">
         <v>36.3</v>
       </c>
       <c r="F237" t="n">
-        <v>9175.886</v>
+        <v>69.408</v>
       </c>
       <c r="G237" t="n">
-        <v>36.68500000000002</v>
+        <v>36.67666666666668</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,10 +7257,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C238" t="n">
         <v>36.4</v>
-      </c>
-      <c r="C238" t="n">
-        <v>36.3</v>
       </c>
       <c r="D238" t="n">
         <v>36.4</v>
@@ -6556,12 +7269,15 @@
         <v>36.3</v>
       </c>
       <c r="F238" t="n">
-        <v>6310.40745384</v>
+        <v>9175.886</v>
       </c>
       <c r="G238" t="n">
-        <v>36.68833333333335</v>
+        <v>36.68500000000002</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C239" t="n">
         <v>36.3</v>
       </c>
-      <c r="C239" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D239" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E239" t="n">
         <v>36.3</v>
       </c>
-      <c r="E239" t="n">
-        <v>36.2</v>
-      </c>
       <c r="F239" t="n">
-        <v>56573.2941</v>
+        <v>6310.40745384</v>
       </c>
       <c r="G239" t="n">
         <v>36.68833333333335</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C240" t="n">
         <v>36.2</v>
       </c>
-      <c r="C240" t="n">
-        <v>36.4</v>
-      </c>
       <c r="D240" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E240" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F240" t="n">
-        <v>96092.9914</v>
+        <v>56573.2941</v>
       </c>
       <c r="G240" t="n">
-        <v>36.69166666666669</v>
+        <v>36.68833333333335</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6625,21 +7347,24 @@
         <v>36.2</v>
       </c>
       <c r="C241" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D241" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E241" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>96092.9914</v>
       </c>
       <c r="G241" t="n">
-        <v>36.68833333333335</v>
+        <v>36.69166666666669</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C242" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="D242" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="E242" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F242" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G242" t="n">
         <v>36.68833333333335</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C243" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="D243" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="E243" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F243" t="n">
-        <v>192.5681</v>
+        <v>7000</v>
       </c>
       <c r="G243" t="n">
-        <v>36.68166666666669</v>
+        <v>36.68833333333335</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,21 +7434,24 @@
         <v>36.3</v>
       </c>
       <c r="C244" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D244" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="E244" t="n">
         <v>36.3</v>
       </c>
       <c r="F244" t="n">
-        <v>1065</v>
+        <v>192.5681</v>
       </c>
       <c r="G244" t="n">
-        <v>36.68500000000002</v>
+        <v>36.68166666666669</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C245" t="n">
         <v>36.6</v>
       </c>
-      <c r="C245" t="n">
-        <v>36.8</v>
-      </c>
       <c r="D245" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E245" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="F245" t="n">
-        <v>37833.80564616</v>
+        <v>1065</v>
       </c>
       <c r="G245" t="n">
-        <v>36.69500000000003</v>
+        <v>36.68500000000002</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C246" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D246" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E246" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>37833.80564616</v>
       </c>
       <c r="G246" t="n">
-        <v>36.69666666666669</v>
+        <v>36.69500000000003</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6793,9 +7533,12 @@
         <v>20</v>
       </c>
       <c r="G247" t="n">
-        <v>36.69500000000002</v>
+        <v>36.69666666666669</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6813,15 +7556,18 @@
         <v>36.7</v>
       </c>
       <c r="E248" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F248" t="n">
-        <v>103483.2677</v>
+        <v>20</v>
       </c>
       <c r="G248" t="n">
-        <v>36.68833333333335</v>
+        <v>36.69500000000002</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C249" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D249" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E249" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F249" t="n">
-        <v>14</v>
+        <v>103483.2677</v>
       </c>
       <c r="G249" t="n">
-        <v>36.68666666666669</v>
+        <v>36.68833333333335</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,7 +7605,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C250" t="n">
         <v>36.8</v>
@@ -6865,15 +7614,18 @@
         <v>36.8</v>
       </c>
       <c r="E250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F250" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G250" t="n">
-        <v>36.68500000000002</v>
+        <v>36.68666666666669</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,21 +7637,24 @@
         <v>36.7</v>
       </c>
       <c r="C251" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D251" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E251" t="n">
         <v>36.7</v>
       </c>
       <c r="F251" t="n">
-        <v>59646.58175384</v>
+        <v>34</v>
       </c>
       <c r="G251" t="n">
         <v>36.68500000000002</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F252" t="n">
-        <v>20</v>
+        <v>59646.58175384</v>
       </c>
       <c r="G252" t="n">
-        <v>36.67833333333336</v>
+        <v>36.68500000000002</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>36.5</v>
       </c>
       <c r="C253" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D253" t="n">
         <v>36.5</v>
       </c>
       <c r="E253" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F253" t="n">
-        <v>54724.1633</v>
+        <v>20</v>
       </c>
       <c r="G253" t="n">
-        <v>36.67000000000002</v>
+        <v>36.67833333333336</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C254" t="n">
         <v>36.3</v>
       </c>
       <c r="D254" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E254" t="n">
         <v>36.3</v>
       </c>
       <c r="F254" t="n">
-        <v>30</v>
+        <v>54724.1633</v>
       </c>
       <c r="G254" t="n">
-        <v>36.65833333333335</v>
+        <v>36.67000000000002</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="C255" t="n">
         <v>36.3</v>
       </c>
       <c r="D255" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E255" t="n">
         <v>36.3</v>
       </c>
       <c r="F255" t="n">
-        <v>136061.0855</v>
+        <v>30</v>
       </c>
       <c r="G255" t="n">
-        <v>36.64000000000002</v>
+        <v>36.65833333333335</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,12 +7791,15 @@
         <v>36.3</v>
       </c>
       <c r="F256" t="n">
-        <v>16139.6026</v>
+        <v>136061.0855</v>
       </c>
       <c r="G256" t="n">
-        <v>36.6166666666667</v>
+        <v>36.64000000000002</v>
       </c>
       <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C257" t="n">
         <v>36.3</v>
       </c>
       <c r="D257" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E257" t="n">
         <v>36.3</v>
       </c>
       <c r="F257" t="n">
-        <v>5520.3686</v>
+        <v>16139.6026</v>
       </c>
       <c r="G257" t="n">
-        <v>36.5916666666667</v>
+        <v>36.6166666666667</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7076,12 +7849,15 @@
         <v>36.3</v>
       </c>
       <c r="F258" t="n">
-        <v>10000</v>
+        <v>5520.3686</v>
       </c>
       <c r="G258" t="n">
-        <v>36.57500000000003</v>
+        <v>36.5916666666667</v>
       </c>
       <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C259" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D259" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E259" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F259" t="n">
-        <v>33261.8963</v>
+        <v>10000</v>
       </c>
       <c r="G259" t="n">
-        <v>36.55666666666669</v>
+        <v>36.57500000000003</v>
       </c>
       <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C260" t="n">
         <v>36.2</v>
       </c>
       <c r="D260" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E260" t="n">
         <v>36.2</v>
       </c>
       <c r="F260" t="n">
-        <v>78006.47100000001</v>
+        <v>33261.8963</v>
       </c>
       <c r="G260" t="n">
-        <v>36.53500000000002</v>
+        <v>36.55666666666669</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C261" t="n">
         <v>36.2</v>
       </c>
       <c r="D261" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E261" t="n">
         <v>36.2</v>
       </c>
       <c r="F261" t="n">
-        <v>19889.7396</v>
+        <v>78006.47100000001</v>
       </c>
       <c r="G261" t="n">
-        <v>36.51166666666668</v>
+        <v>36.53500000000002</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7180,12 +7965,15 @@
         <v>36.2</v>
       </c>
       <c r="F262" t="n">
-        <v>108280.4955</v>
+        <v>19889.7396</v>
       </c>
       <c r="G262" t="n">
-        <v>36.48666666666669</v>
+        <v>36.51166666666668</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F263" t="n">
-        <v>8467.4586</v>
+        <v>108280.4955</v>
       </c>
       <c r="G263" t="n">
-        <v>36.47166666666669</v>
+        <v>36.48666666666669</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7223,21 +8014,24 @@
         <v>36.3</v>
       </c>
       <c r="C264" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D264" t="n">
         <v>36.3</v>
       </c>
       <c r="E264" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F264" t="n">
-        <v>12533.7686</v>
+        <v>8467.4586</v>
       </c>
       <c r="G264" t="n">
-        <v>36.44833333333336</v>
+        <v>36.47166666666669</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C265" t="n">
         <v>36.2</v>
       </c>
       <c r="D265" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E265" t="n">
         <v>36.2</v>
       </c>
       <c r="F265" t="n">
-        <v>593.6573</v>
+        <v>12533.7686</v>
       </c>
       <c r="G265" t="n">
-        <v>36.42666666666669</v>
+        <v>36.44833333333336</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,24 +8069,27 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="C266" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="D266" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="E266" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="F266" t="n">
-        <v>55642.3025</v>
+        <v>593.6573</v>
       </c>
       <c r="G266" t="n">
         <v>36.42666666666669</v>
       </c>
       <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,24 +8098,27 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C267" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="D267" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E267" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F267" t="n">
-        <v>30793.16</v>
+        <v>55642.3025</v>
       </c>
       <c r="G267" t="n">
-        <v>36.41333333333336</v>
+        <v>36.42666666666669</v>
       </c>
       <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7327,21 +8130,24 @@
         <v>36.7</v>
       </c>
       <c r="C268" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D268" t="n">
         <v>36.7</v>
       </c>
       <c r="E268" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="F268" t="n">
-        <v>15</v>
+        <v>30793.16</v>
       </c>
       <c r="G268" t="n">
-        <v>36.41500000000003</v>
+        <v>36.41333333333336</v>
       </c>
       <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7362,12 +8168,15 @@
         <v>36.7</v>
       </c>
       <c r="F269" t="n">
-        <v>172843.6768</v>
+        <v>15</v>
       </c>
       <c r="G269" t="n">
-        <v>36.41166666666668</v>
+        <v>36.41500000000003</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F270" t="n">
-        <v>59670.0894</v>
+        <v>172843.6768</v>
       </c>
       <c r="G270" t="n">
         <v>36.41166666666668</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7405,21 +8217,24 @@
         <v>36.8</v>
       </c>
       <c r="C271" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D271" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E271" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F271" t="n">
-        <v>101414.6324</v>
+        <v>59670.0894</v>
       </c>
       <c r="G271" t="n">
-        <v>36.41333333333335</v>
+        <v>36.41166666666668</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,10 +8243,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C272" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D272" t="n">
         <v>36.9</v>
@@ -7440,12 +8255,15 @@
         <v>36.7</v>
       </c>
       <c r="F272" t="n">
-        <v>465860.2396</v>
+        <v>101414.6324</v>
       </c>
       <c r="G272" t="n">
-        <v>36.41833333333336</v>
+        <v>36.41333333333335</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7460,18 +8278,21 @@
         <v>36.9</v>
       </c>
       <c r="D273" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E273" t="n">
         <v>36.7</v>
       </c>
       <c r="F273" t="n">
-        <v>12705.2698</v>
+        <v>465860.2396</v>
       </c>
       <c r="G273" t="n">
-        <v>36.42333333333336</v>
+        <v>36.41833333333336</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C274" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D274" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E274" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F274" t="n">
-        <v>5523.1873</v>
+        <v>12705.2698</v>
       </c>
       <c r="G274" t="n">
         <v>36.42333333333336</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,21 +8333,24 @@
         <v>36.8</v>
       </c>
       <c r="C275" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D275" t="n">
         <v>36.9</v>
       </c>
       <c r="E275" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F275" t="n">
-        <v>84911.5445</v>
+        <v>5523.1873</v>
       </c>
       <c r="G275" t="n">
-        <v>36.42500000000003</v>
+        <v>36.42333333333336</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C276" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D276" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E276" t="n">
         <v>36.7</v>
       </c>
       <c r="F276" t="n">
-        <v>20</v>
+        <v>84911.5445</v>
       </c>
       <c r="G276" t="n">
-        <v>36.43500000000002</v>
+        <v>36.42500000000003</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7570,12 +8400,15 @@
         <v>36.7</v>
       </c>
       <c r="F277" t="n">
-        <v>150000</v>
+        <v>20</v>
       </c>
       <c r="G277" t="n">
-        <v>36.44500000000002</v>
+        <v>36.43500000000002</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7596,12 +8429,15 @@
         <v>36.7</v>
       </c>
       <c r="F278" t="n">
-        <v>55064.259</v>
+        <v>150000</v>
       </c>
       <c r="G278" t="n">
-        <v>36.45666666666668</v>
+        <v>36.44500000000002</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7622,12 +8458,15 @@
         <v>36.7</v>
       </c>
       <c r="F279" t="n">
-        <v>1573.9218</v>
+        <v>55064.259</v>
       </c>
       <c r="G279" t="n">
-        <v>36.46000000000002</v>
+        <v>36.45666666666668</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F280" t="n">
-        <v>104037.5616</v>
+        <v>1573.9218</v>
       </c>
       <c r="G280" t="n">
-        <v>36.46666666666668</v>
+        <v>36.46000000000002</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F281" t="n">
-        <v>74180.0968</v>
+        <v>104037.5616</v>
       </c>
       <c r="G281" t="n">
-        <v>36.47000000000001</v>
+        <v>36.46666666666668</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,12 +8545,15 @@
         <v>36.7</v>
       </c>
       <c r="F282" t="n">
-        <v>500</v>
+        <v>74180.0968</v>
       </c>
       <c r="G282" t="n">
-        <v>36.47333333333334</v>
+        <v>36.47000000000001</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F283" t="n">
-        <v>3768.9701897</v>
+        <v>500</v>
       </c>
       <c r="G283" t="n">
-        <v>36.48166666666668</v>
+        <v>36.47333333333334</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7752,12 +8603,15 @@
         <v>36.9</v>
       </c>
       <c r="F284" t="n">
-        <v>725.7699</v>
+        <v>3768.9701897</v>
       </c>
       <c r="G284" t="n">
-        <v>36.48833333333334</v>
+        <v>36.48166666666668</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7766,24 +8620,27 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F285" t="n">
-        <v>26665</v>
+        <v>725.7699</v>
       </c>
       <c r="G285" t="n">
-        <v>36.495</v>
+        <v>36.48833333333334</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7792,24 +8649,27 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F286" t="n">
-        <v>15</v>
+        <v>26665</v>
       </c>
       <c r="G286" t="n">
-        <v>36.50500000000001</v>
+        <v>36.495</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7830,12 +8690,15 @@
         <v>36.8</v>
       </c>
       <c r="F287" t="n">
-        <v>985</v>
+        <v>15</v>
       </c>
       <c r="G287" t="n">
-        <v>36.51500000000001</v>
+        <v>36.50500000000001</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7844,24 +8707,27 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F288" t="n">
-        <v>6690.5665</v>
+        <v>985</v>
       </c>
       <c r="G288" t="n">
-        <v>36.52333333333335</v>
+        <v>36.51500000000001</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7870,24 +8736,27 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F289" t="n">
-        <v>23041.6965</v>
+        <v>6690.5665</v>
       </c>
       <c r="G289" t="n">
-        <v>36.53833333333335</v>
+        <v>36.52333333333335</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7908,12 +8777,15 @@
         <v>37</v>
       </c>
       <c r="F290" t="n">
-        <v>50818.8833</v>
+        <v>23041.6965</v>
       </c>
       <c r="G290" t="n">
-        <v>36.55333333333336</v>
+        <v>36.53833333333335</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7922,24 +8794,27 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="C291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="D291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="E291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="F291" t="n">
-        <v>100</v>
+        <v>50818.8833</v>
       </c>
       <c r="G291" t="n">
-        <v>36.56000000000002</v>
+        <v>36.55333333333336</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7960,12 +8835,15 @@
         <v>36.8</v>
       </c>
       <c r="F292" t="n">
-        <v>38870.1608</v>
+        <v>100</v>
       </c>
       <c r="G292" t="n">
-        <v>36.56666666666669</v>
+        <v>36.56000000000002</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7977,21 +8855,24 @@
         <v>36.8</v>
       </c>
       <c r="C293" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D293" t="n">
         <v>36.8</v>
       </c>
       <c r="E293" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F293" t="n">
-        <v>12000</v>
+        <v>38870.1608</v>
       </c>
       <c r="G293" t="n">
-        <v>36.57166666666669</v>
+        <v>36.56666666666669</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8000,24 +8881,27 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C294" t="n">
         <v>36.7</v>
       </c>
       <c r="D294" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="E294" t="n">
         <v>36.7</v>
       </c>
       <c r="F294" t="n">
-        <v>97020.9667</v>
+        <v>12000</v>
       </c>
       <c r="G294" t="n">
-        <v>36.58333333333335</v>
+        <v>36.57166666666669</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8029,21 +8913,24 @@
         <v>36.9</v>
       </c>
       <c r="C295" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D295" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E295" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F295" t="n">
-        <v>65.05840000000001</v>
+        <v>97020.9667</v>
       </c>
       <c r="G295" t="n">
-        <v>36.59500000000002</v>
+        <v>36.58333333333335</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8052,24 +8939,27 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F296" t="n">
-        <v>20000</v>
+        <v>65.05840000000001</v>
       </c>
       <c r="G296" t="n">
-        <v>36.60166666666668</v>
+        <v>36.59500000000002</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8081,21 +8971,24 @@
         <v>36.7</v>
       </c>
       <c r="C297" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D297" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E297" t="n">
         <v>36.7</v>
       </c>
       <c r="F297" t="n">
-        <v>52247.9564</v>
+        <v>20000</v>
       </c>
       <c r="G297" t="n">
-        <v>36.60833333333335</v>
+        <v>36.60166666666668</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8107,21 +9000,24 @@
         <v>36.7</v>
       </c>
       <c r="C298" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D298" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E298" t="n">
         <v>36.7</v>
       </c>
       <c r="F298" t="n">
-        <v>3491.4987</v>
+        <v>52247.9564</v>
       </c>
       <c r="G298" t="n">
-        <v>36.61500000000001</v>
+        <v>36.60833333333335</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8142,12 +9038,15 @@
         <v>36.7</v>
       </c>
       <c r="F299" t="n">
-        <v>69134</v>
+        <v>3491.4987</v>
       </c>
       <c r="G299" t="n">
-        <v>36.62333333333334</v>
+        <v>36.61500000000001</v>
       </c>
       <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8156,24 +9055,27 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F300" t="n">
-        <v>15</v>
+        <v>69134</v>
       </c>
       <c r="G300" t="n">
-        <v>36.63166666666667</v>
+        <v>36.62333333333334</v>
       </c>
       <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8182,24 +9084,27 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="C301" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D301" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="E301" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F301" t="n">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="G301" t="n">
-        <v>36.63666666666668</v>
+        <v>36.63166666666667</v>
       </c>
       <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8211,21 +9116,24 @@
         <v>36.6</v>
       </c>
       <c r="C302" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D302" t="n">
         <v>36.6</v>
       </c>
       <c r="E302" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F302" t="n">
-        <v>27397</v>
+        <v>1500</v>
       </c>
       <c r="G302" t="n">
-        <v>36.63500000000001</v>
+        <v>36.63666666666668</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8234,24 +9142,27 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="C303" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="D303" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="E303" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="F303" t="n">
-        <v>80606.75791135</v>
+        <v>27397</v>
       </c>
       <c r="G303" t="n">
-        <v>36.64666666666668</v>
+        <v>36.63500000000001</v>
       </c>
       <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8260,24 +9171,27 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C304" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D304" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E304" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F304" t="n">
-        <v>9185.1633</v>
+        <v>80606.75791135</v>
       </c>
       <c r="G304" t="n">
-        <v>36.65166666666668</v>
+        <v>36.64666666666668</v>
       </c>
       <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8286,24 +9200,27 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="E305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="F305" t="n">
-        <v>18963.1364</v>
+        <v>9185.1633</v>
       </c>
       <c r="G305" t="n">
         <v>36.65166666666668</v>
       </c>
       <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8315,21 +9232,24 @@
         <v>36.8</v>
       </c>
       <c r="C306" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D306" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="E306" t="n">
         <v>36.8</v>
       </c>
       <c r="F306" t="n">
-        <v>5715.45253386</v>
+        <v>18963.1364</v>
       </c>
       <c r="G306" t="n">
-        <v>36.65666666666668</v>
+        <v>36.65166666666668</v>
       </c>
       <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8338,24 +9258,27 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C307" t="n">
         <v>37</v>
-      </c>
-      <c r="C307" t="n">
-        <v>36.7</v>
       </c>
       <c r="D307" t="n">
         <v>37</v>
       </c>
       <c r="E307" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F307" t="n">
-        <v>5084</v>
+        <v>5715.45253386</v>
       </c>
       <c r="G307" t="n">
         <v>36.65666666666668</v>
       </c>
       <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8367,21 +9290,24 @@
         <v>37</v>
       </c>
       <c r="C308" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="D308" t="n">
         <v>37</v>
       </c>
       <c r="E308" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="F308" t="n">
-        <v>5243</v>
+        <v>5084</v>
       </c>
       <c r="G308" t="n">
-        <v>36.66166666666668</v>
+        <v>36.65666666666668</v>
       </c>
       <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8390,24 +9316,27 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="C309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="D309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="E309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="F309" t="n">
-        <v>16119.6026</v>
+        <v>5243</v>
       </c>
       <c r="G309" t="n">
-        <v>36.66000000000001</v>
+        <v>36.66166666666668</v>
       </c>
       <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8428,12 +9357,15 @@
         <v>36.7</v>
       </c>
       <c r="F310" t="n">
-        <v>896</v>
+        <v>16119.6026</v>
       </c>
       <c r="G310" t="n">
-        <v>36.65833333333334</v>
+        <v>36.66000000000001</v>
       </c>
       <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8442,24 +9374,27 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F311" t="n">
-        <v>15</v>
+        <v>896</v>
       </c>
       <c r="G311" t="n">
-        <v>36.66166666666668</v>
+        <v>36.65833333333334</v>
       </c>
       <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8468,24 +9403,27 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C312" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D312" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="E312" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F312" t="n">
-        <v>116857.0654</v>
+        <v>15</v>
       </c>
       <c r="G312" t="n">
-        <v>36.66500000000001</v>
+        <v>36.66166666666668</v>
       </c>
       <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8494,24 +9432,27 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C313" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D313" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="E313" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F313" t="n">
-        <v>85802.5662</v>
+        <v>116857.0654</v>
       </c>
       <c r="G313" t="n">
-        <v>36.66833333333334</v>
+        <v>36.66500000000001</v>
       </c>
       <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8520,24 +9461,27 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C314" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D314" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E314" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>85802.5662</v>
       </c>
       <c r="G314" t="n">
-        <v>36.675</v>
+        <v>36.66833333333334</v>
       </c>
       <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8546,24 +9490,27 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C315" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D315" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E315" t="n">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="F315" t="n">
-        <v>314191.1566</v>
+        <v>15</v>
       </c>
       <c r="G315" t="n">
-        <v>36.67999999999999</v>
+        <v>36.675</v>
       </c>
       <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8572,24 +9519,27 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C316" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D316" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E316" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F316" t="n">
-        <v>549.45</v>
+        <v>314191.1566</v>
       </c>
       <c r="G316" t="n">
-        <v>36.68166666666666</v>
+        <v>36.67999999999999</v>
       </c>
       <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8598,24 +9548,27 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="F317" t="n">
-        <v>20</v>
+        <v>549.45</v>
       </c>
       <c r="G317" t="n">
-        <v>36.67999999999999</v>
+        <v>36.68166666666666</v>
       </c>
       <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8627,21 +9580,24 @@
         <v>36.2</v>
       </c>
       <c r="C318" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="D318" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="E318" t="n">
         <v>36.2</v>
       </c>
       <c r="F318" t="n">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="G318" t="n">
-        <v>36.68333333333332</v>
+        <v>36.67999999999999</v>
       </c>
       <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8653,541 +9609,24 @@
         <v>36.2</v>
       </c>
       <c r="C319" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D319" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E319" t="n">
         <v>36.2</v>
       </c>
       <c r="F319" t="n">
-        <v>9578.684600000001</v>
+        <v>489</v>
       </c>
       <c r="G319" t="n">
-        <v>36.68666666666665</v>
+        <v>36.68333333333332</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C320" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D320" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="E320" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F320" t="n">
-        <v>9999.9</v>
-      </c>
-      <c r="G320" t="n">
-        <v>36.68666666666665</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C321" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D321" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E321" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F321" t="n">
-        <v>25841.1846</v>
-      </c>
-      <c r="G321" t="n">
-        <v>36.68999999999999</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C322" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D322" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E322" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F322" t="n">
-        <v>20</v>
-      </c>
-      <c r="G322" t="n">
-        <v>36.69333333333334</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C323" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D323" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E323" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F323" t="n">
-        <v>15768.3189</v>
-      </c>
-      <c r="G323" t="n">
-        <v>36.695</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C324" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D324" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E324" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F324" t="n">
-        <v>808.2017</v>
-      </c>
-      <c r="G324" t="n">
-        <v>36.69833333333334</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C325" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D325" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E325" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F325" t="n">
-        <v>67425.844</v>
-      </c>
-      <c r="G325" t="n">
-        <v>36.70333333333334</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C326" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D326" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E326" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F326" t="n">
-        <v>78751.50440000001</v>
-      </c>
-      <c r="G326" t="n">
-        <v>36.70500000000001</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C327" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D327" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E327" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F327" t="n">
-        <v>60308.3842</v>
-      </c>
-      <c r="G327" t="n">
-        <v>36.70500000000001</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C328" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D328" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E328" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F328" t="n">
-        <v>71515.6814</v>
-      </c>
-      <c r="G328" t="n">
-        <v>36.70666666666668</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C329" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D329" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E329" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F329" t="n">
-        <v>33405.4105</v>
-      </c>
-      <c r="G329" t="n">
-        <v>36.70833333333335</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C330" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D330" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E330" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F330" t="n">
-        <v>77294.8078</v>
-      </c>
-      <c r="G330" t="n">
-        <v>36.70333333333335</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C331" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D331" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E331" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F331" t="n">
-        <v>63314.6105</v>
-      </c>
-      <c r="G331" t="n">
-        <v>36.70333333333335</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C332" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D332" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E332" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F332" t="n">
-        <v>33380.5809</v>
-      </c>
-      <c r="G332" t="n">
-        <v>36.70000000000001</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C333" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D333" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E333" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F333" t="n">
-        <v>826.6609999999999</v>
-      </c>
-      <c r="G333" t="n">
-        <v>36.69666666666667</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C334" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D334" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E334" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F334" t="n">
-        <v>63963.0768</v>
-      </c>
-      <c r="G334" t="n">
-        <v>36.69</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C335" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D335" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E335" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F335" t="n">
-        <v>15</v>
-      </c>
-      <c r="G335" t="n">
-        <v>36.68666666666666</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C336" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D336" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E336" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F336" t="n">
-        <v>678.7362000000001</v>
-      </c>
-      <c r="G336" t="n">
-        <v>36.68166666666666</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C337" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D337" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E337" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1484.6272</v>
-      </c>
-      <c r="G337" t="n">
-        <v>36.67666666666667</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C338" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D338" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E338" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F338" t="n">
-        <v>178224.8093</v>
-      </c>
-      <c r="G338" t="n">
-        <v>36.67000000000001</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C339" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D339" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E339" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F339" t="n">
-        <v>142904.4651</v>
-      </c>
-      <c r="G339" t="n">
-        <v>36.66166666666668</v>
-      </c>
-      <c r="H339" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
         <v>0</v>
       </c>
     </row>
